--- a/Apache Airflow/Data Pipelines with Apache Airflow.xlsx
+++ b/Apache Airflow/Data Pipelines with Apache Airflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3. Михайлов\Develop\PythonTraining\PythonTraining\Apache Airflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506C0E62-9B64-4C05-9AFB-985F4AA93FC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60AED2A-13AB-488D-9E0E-17F0A718B0FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="15990" windowHeight="24720" xr2:uid="{322C65E7-B1BD-4309-A376-1D5B7C88940C}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,25 +629,29 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1">
+        <v>35</v>
+      </c>
       <c r="I2" s="1">
         <f>H2-G2</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
         <f>I2/J2</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="2">
         <f>MEDIAN(I2:I18)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -677,7 +681,7 @@
       </c>
       <c r="M3" s="3">
         <f>MEDIAN(J2:J18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,9 +709,9 @@
       <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="2" t="e">
+      <c r="M4" s="2">
         <f>MEDIAN(K2:K18)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -760,7 +764,7 @@
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(I2:I18)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -790,7 +794,7 @@
       </c>
       <c r="M7" s="2">
         <f>AVERAGE(J2:J18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -818,9 +822,9 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="2" t="e">
+      <c r="M8" s="2">
         <f>AVERAGE(K2:K18)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -919,7 +923,7 @@
       </c>
       <c r="M12">
         <f>SUM(J2:J18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -947,9 +951,9 @@
       <c r="L13" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="2" t="e">
+      <c r="M13" s="2">
         <f>(MAX(B2:B18)-MAX(H2:H18))/M6</f>
-        <v>#DIV/0!</v>
+        <v>64.166666666666671</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1055,7 +1059,7 @@
         <v>420</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:C20" si="2">B19-B18</f>
+        <f t="shared" ref="C18:C19" si="2">B19-B18</f>
         <v>18</v>
       </c>
       <c r="D18" s="1">
